--- a/Reviewer_Comments_R_1_23-Dec-2024.xlsx
+++ b/Reviewer_Comments_R_1_23-Dec-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Publications\Article_Empirical_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5BCA9-A1DE-43F6-8101-AE75CDBBF6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC394D-ED7A-4A18-AD11-0DCD8405A0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="XXXX" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="200">
   <si>
     <t>Reviewer 1</t>
   </si>
@@ -1506,9 +1506,6 @@
     </r>
   </si>
   <si>
-    <t>R-1: 5 - 17</t>
-  </si>
-  <si>
     <t>Scopus and WoS = 0 for Auto RL</t>
   </si>
   <si>
@@ -1532,9 +1529,6 @@
   </si>
   <si>
     <t>Documents </t>
-  </si>
-  <si>
-    <t>10 articles downloaded</t>
   </si>
   <si>
     <t>Pick from MethodsX + REVIEW article</t>
@@ -1724,46 +1718,6 @@
   </si>
   <si>
     <t>{krzywanski2024}</t>
-  </si>
-  <si>
-    <t>Tornede2020AutoML</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ML-Plan-RUL
-- Claims </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NO available Auto ML for timeseries</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Issue with standard algos: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Timeseries RUL prob has varying length of time - so converts to fixed length</t>
-    </r>
   </si>
   <si>
     <t>R.2 #2 (14). {Ganeshkumar2020}</t>
@@ -2066,140 +2020,6 @@
     <t>R2-7-19: Future aras!</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">In addition to the discussion so far, the majority of the work in this survey addresses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>single
-agent RL.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Multi- Objective </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Reinforcement Learning (MORL), (3) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>offline RL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, where agents must </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>generalize</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to an </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">real world environment </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">from a </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>static</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dataset of experiences ie PHM datasets</t>
-    </r>
-  </si>
-  <si>
     <t>R-1: 2.3; time</t>
   </si>
   <si>
@@ -2232,13 +2052,203 @@
       </rPr>
       <t xml:space="preserve"> in RL since evaluations in RL are almost always necessarily stochastic and much more noisy than in supervised learning, due to various sources (e.g. policy, environment), which can be a challenge for any form of automatic tuning.</t>
     </r>
+  </si>
+  <si>
+    <t>R-2: 5 - 17: Latest LR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tornede2020AutoML - ML-Plan-RUL
+- Claims </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO available Auto ML for timeseries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Issue with standard algos: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Timeseries RUL prob has varying length of time - so converts to fixed length</t>
+    </r>
+  </si>
+  <si>
+    <t>Use material from Parker-Holder + Eimer</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Eimer 2023, Parker-Holder 2022, many downloaded: 23-24 - add in various sections</t>
+  </si>
+  <si>
+    <t>4 add: Multi-agent, Multi-obj and Offline RL and Meta-RL (learning to learn)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 add: Multi-agent, Multi-obj and Offline RL and Meta-RL (learning to learn): 
+In addition to the discussion so far, the majority of the work in this survey addresses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single
+agent RL.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Multi- Objective </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Reinforcement Learning (MORL), (3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>offline RL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, where agents must </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>generalize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to an </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">real world environment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">from a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dataset of experiences ie PHM datasets</t>
+    </r>
+  </si>
+  <si>
+    <t>Point-by-Point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2575,6 +2585,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2662,7 +2693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2879,12 +2910,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3256,45 +3412,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3310,54 +3427,6 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -3365,13 +3434,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -3384,6 +3446,105 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3513,10 +3674,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>working_notes!$D$7:$D$12</c:f>
+              <c:f>working_notes!$D$7:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2024</c:v>
                 </c:pt>
@@ -3532,7 +3693,7 @@
                 <c:pt idx="4">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
@@ -3540,10 +3701,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>working_notes!$E$7:$E$12</c:f>
+              <c:f>working_notes!$E$7:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3559,7 +3720,7 @@
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4327,7 +4488,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>131884</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4623,7 +4784,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:C20"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4651,28 +4812,28 @@
         <v>24</v>
       </c>
       <c r="E1" s="119" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G1" s="119" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H1" s="120" t="s">
         <v>135</v>
       </c>
       <c r="I1" s="88"/>
-      <c r="J1" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" s="141" t="s">
+      <c r="J1" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="141" t="s">
+      <c r="L1" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="141" t="s">
+      <c r="M1" s="128" t="s">
         <v>130</v>
       </c>
       <c r="N1" s="107" t="s">
@@ -4702,7 +4863,7 @@
       <c r="G2" s="61"/>
       <c r="H2" s="121"/>
       <c r="I2" s="89"/>
-      <c r="J2" s="142" t="s">
+      <c r="J2" s="129" t="s">
         <v>129</v>
       </c>
       <c r="K2" s="108">
@@ -4739,7 +4900,7 @@
       <c r="G3" s="86"/>
       <c r="H3" s="122"/>
       <c r="I3" s="89"/>
-      <c r="J3" s="143" t="s">
+      <c r="J3" s="130" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="108">
@@ -4750,11 +4911,11 @@
         <v>1</v>
       </c>
       <c r="M3" s="108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" s="109">
         <f t="shared" ref="N3:N4" si="0">K3-M3</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="89"/>
     </row>
@@ -4777,10 +4938,10 @@
       <c r="F4" s="86"/>
       <c r="G4" s="86"/>
       <c r="H4" s="122" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I4" s="89"/>
-      <c r="J4" s="144" t="s">
+      <c r="J4" s="131" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="110">
@@ -4791,11 +4952,11 @@
         <v>2</v>
       </c>
       <c r="M4" s="110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="111">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O4" s="89"/>
     </row>
@@ -4830,11 +4991,11 @@
       </c>
       <c r="M5" s="112">
         <f>SUM(M2:M4)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N5" s="113">
         <f>SUM(N2:N4)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O5" s="89"/>
     </row>
@@ -4857,7 +5018,7 @@
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
       <c r="H6" s="122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I6" s="89"/>
       <c r="J6" s="89"/>
@@ -4868,11 +5029,11 @@
       </c>
       <c r="M6" s="114">
         <f>M5/$K$5</f>
-        <v>0.18181818181818182</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="N6" s="114">
         <f>N5/$K$5</f>
-        <v>0.81818181818181823</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="O6" s="89"/>
     </row>
@@ -4889,27 +5050,29 @@
       <c r="D7" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="81" t="s">
-        <v>104</v>
+      <c r="E7" s="98" t="s">
+        <v>130</v>
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
-      <c r="H7" s="122"/>
+      <c r="H7" s="122" t="s">
+        <v>194</v>
+      </c>
       <c r="I7" s="89"/>
       <c r="J7" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="145">
+      <c r="K7" s="140">
         <v>45657</v>
       </c>
-      <c r="L7" s="145"/>
+      <c r="L7" s="140"/>
       <c r="M7" s="89"/>
       <c r="N7" s="114">
         <f>(M5+L5)/K5</f>
-        <v>0.31818181818181818</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="O7" s="89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4935,11 +5098,11 @@
       <c r="J8" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="145">
+      <c r="K8" s="140">
         <f ca="1">TODAY()</f>
         <v>45649</v>
       </c>
-      <c r="L8" s="145"/>
+      <c r="L8" s="140"/>
       <c r="M8" s="89"/>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
@@ -4961,7 +5124,7 @@
       <c r="F9" s="86"/>
       <c r="G9" s="86"/>
       <c r="H9" s="122" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I9" s="89"/>
       <c r="J9" s="105" t="s">
@@ -4995,7 +5158,7 @@
       <c r="F10" s="92"/>
       <c r="G10" s="92"/>
       <c r="H10" s="123" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="89"/>
       <c r="J10" s="89"/>
@@ -5016,8 +5179,8 @@
       <c r="D11" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="82" t="s">
-        <v>37</v>
+      <c r="E11" s="156" t="s">
+        <v>195</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
@@ -5050,19 +5213,19 @@
       <c r="G12" s="86"/>
       <c r="H12" s="122"/>
       <c r="I12" s="89"/>
-      <c r="J12" s="127" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="128" t="s">
+      <c r="J12" s="160" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="128" t="s">
+      <c r="L12" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="128" t="s">
+      <c r="M12" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="N12" s="129" t="s">
+      <c r="N12" s="162" t="s">
         <v>139</v>
       </c>
       <c r="O12" s="89"/>
@@ -5087,21 +5250,13 @@
       <c r="G13" s="86"/>
       <c r="H13" s="122"/>
       <c r="I13" s="89"/>
-      <c r="J13" s="130" t="s">
+      <c r="J13" s="163" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="131">
-        <f>COUNTA(C13)</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131">
-        <v>1</v>
-      </c>
-      <c r="N13" s="132">
-        <f>K13-M13</f>
-        <v>0</v>
-      </c>
+      <c r="K13" s="157"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="164"/>
       <c r="O13" s="89"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5122,22 +5277,16 @@
       <c r="G14" s="86"/>
       <c r="H14" s="122"/>
       <c r="I14" s="89"/>
-      <c r="J14" s="133" t="s">
+      <c r="J14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="131">
-        <f>COUNTA(C14:C22)</f>
-        <v>9</v>
-      </c>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="132">
-        <f t="shared" ref="N14:N15" si="2">K14-M14</f>
-        <v>9</v>
-      </c>
+      <c r="K14" s="157"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="164"/>
       <c r="O14" s="89"/>
     </row>
-    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74"/>
       <c r="B15" s="66">
         <v>2</v>
@@ -5148,26 +5297,20 @@
       <c r="D15" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="81" t="s">
-        <v>104</v>
+      <c r="E15" s="104" t="s">
+        <v>34</v>
       </c>
       <c r="F15" s="86"/>
       <c r="G15" s="86"/>
       <c r="H15" s="122"/>
       <c r="I15" s="89"/>
-      <c r="J15" s="134" t="s">
+      <c r="J15" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="135">
-        <f>COUNTA(C23:C34)</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="136">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="K15" s="168"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="168"/>
+      <c r="N15" s="169"/>
       <c r="O15" s="89"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5190,26 +5333,26 @@
       <c r="G16" s="86"/>
       <c r="H16" s="122"/>
       <c r="I16" s="89"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138">
-        <f t="shared" ref="K16" si="3">SUM(K13:K15)</f>
-        <v>11</v>
-      </c>
-      <c r="L16" s="138">
-        <f t="shared" ref="L16" si="4">SUM(L13:L15)</f>
+      <c r="J16" s="170"/>
+      <c r="K16" s="171">
+        <f t="shared" ref="K16" si="2">SUM(K13:K15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="138">
+      <c r="L16" s="171">
+        <f t="shared" ref="L16" si="3">SUM(L13:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="171">
         <f>SUM(M13:M15)</f>
-        <v>1</v>
-      </c>
-      <c r="N16" s="139">
+        <v>0</v>
+      </c>
+      <c r="N16" s="172">
         <f>SUM(N13:N15)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O16" s="89"/>
     </row>
-    <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
         <v>59</v>
       </c>
@@ -5222,8 +5365,8 @@
       <c r="D17" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="104" t="s">
-        <v>34</v>
+      <c r="E17" s="98" t="s">
+        <v>130</v>
       </c>
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
@@ -5231,11 +5374,11 @@
         <v>128</v>
       </c>
       <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
       <c r="O17" s="89"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5257,14 +5400,24 @@
       <c r="F18" s="86"/>
       <c r="G18" s="86"/>
       <c r="H18" s="122" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
+      <c r="J18" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="161" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="161" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="162" t="s">
+        <v>139</v>
+      </c>
       <c r="O18" s="89"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5287,11 +5440,13 @@
       <c r="G19" s="86"/>
       <c r="H19" s="122"/>
       <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
+      <c r="J19" s="163" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="164"/>
       <c r="O19" s="89"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5307,21 +5462,25 @@
       <c r="D20" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="81" t="s">
-        <v>104</v>
+      <c r="E20" s="98" t="s">
+        <v>130</v>
       </c>
       <c r="F20" s="86"/>
       <c r="G20" s="86"/>
-      <c r="H20" s="122"/>
+      <c r="H20" s="122" t="s">
+        <v>197</v>
+      </c>
       <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
+      <c r="J20" s="165" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="164"/>
       <c r="O20" s="89"/>
     </row>
-    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="74"/>
       <c r="B21" s="66">
         <v>7</v>
@@ -5336,21 +5495,23 @@
         <v>130</v>
       </c>
       <c r="F21" s="86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G21" s="86"/>
       <c r="H21" s="122" t="s">
         <v>137</v>
       </c>
       <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
+      <c r="J21" s="167" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="168"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="169"/>
       <c r="O21" s="89"/>
     </row>
-    <row r="22" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="74" t="s">
         <v>59</v>
       </c>
@@ -5370,11 +5531,23 @@
       <c r="G22" s="86"/>
       <c r="H22" s="122"/>
       <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="171">
+        <f t="shared" ref="K22:L22" si="4">SUM(K19:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="171">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="171">
+        <f>SUM(M19:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="172">
+        <f>SUM(N19:N21)</f>
+        <v>0</v>
+      </c>
       <c r="O22" s="89"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5421,7 +5594,7 @@
       <c r="O24" s="89"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O23" xr:uid="{816F3457-95CC-4A5E-96D0-1EA42C9E78DF}"/>
+  <autoFilter ref="A1:H23" xr:uid="{816F3457-95CC-4A5E-96D0-1EA42C9E78DF}"/>
   <mergeCells count="2">
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
@@ -5429,7 +5602,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K3:K4 K14:K15" formulaRange="1"/>
+    <ignoredError sqref="K3:K4" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -5437,10 +5610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24F838E-581A-4053-8853-3FD311356AFD}">
-  <dimension ref="B2:G48"/>
+  <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,7 +5626,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="116" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="116"/>
     </row>
@@ -5473,21 +5646,21 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="103" t="s">
         <v>148</v>
-      </c>
-      <c r="E6" s="103" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7">
         <v>2024</v>
@@ -5498,7 +5671,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8">
         <v>2023</v>
@@ -5509,7 +5682,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9">
         <v>2022</v>
@@ -5520,7 +5693,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10">
         <v>2021</v>
@@ -5531,7 +5704,7 @@
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11">
         <v>2020</v>
@@ -5541,209 +5714,190 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="115" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="96"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="96" t="s">
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="117" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="118" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="78"/>
-    </row>
-    <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="115" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="B19" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D16" s="18"/>
+      <c r="E16" s="78"/>
+    </row>
+    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="115"/>
+      <c r="C18" s="96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B20" s="93" t="s">
+        <v>189</v>
+      </c>
       <c r="C20" s="96" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="66">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="66">
         <v>2</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G21" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="95" t="s">
-        <v>171</v>
-      </c>
-    </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="95" t="s">
+        <v>166</v>
+      </c>
       <c r="C26" s="95" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" s="95" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="132" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="161" t="s">
+      <c r="C31" s="133" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="134"/>
+    </row>
+    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="96" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C33" s="96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C34" s="96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C35" s="96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="135"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="137"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="132" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="162" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="163"/>
-    </row>
-    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="164"/>
-      <c r="C31" s="165" t="s">
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="139"/>
+      <c r="C41" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="166"/>
-    </row>
-    <row r="32" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B32" s="164"/>
-      <c r="C32" s="165" t="s">
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+    </row>
+    <row r="43" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="132" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="166"/>
-    </row>
-    <row r="33" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="164"/>
-      <c r="C33" s="165" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="166"/>
-    </row>
-    <row r="34" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B34" s="164"/>
-      <c r="C34" s="165" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="166"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="167"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="169"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="161" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="170" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="163"/>
-      <c r="E37" s="163"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="164"/>
-      <c r="C38" s="164" t="s">
+    </row>
+    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="96" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="164"/>
-      <c r="C39" s="164" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="166"/>
-      <c r="E39" s="166"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="171"/>
-      <c r="C40" s="168" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-    </row>
-    <row r="42" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B42" s="161" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="164"/>
-      <c r="C43" s="165" t="s">
+    </row>
+    <row r="47" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C47" s="96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B49" s="135" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="170" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="164"/>
-      <c r="C46" s="165" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="164"/>
-      <c r="C47" s="164"/>
-    </row>
-    <row r="48" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B48" s="167" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="168" t="s">
-        <v>193</v>
+      <c r="C49" s="136" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -7011,19 +7165,19 @@
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="143">
         <v>1</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="152" t="s">
+      <c r="D7" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="154" t="s">
+      <c r="E7" s="149" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="26" t="s">
@@ -7031,11 +7185,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="156"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="160"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="150"/>
       <c r="F8" s="27" t="s">
         <v>40</v>
       </c>
@@ -7061,19 +7215,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="143">
         <v>3</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="152" t="s">
+      <c r="E10" s="147" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="26" t="s">
@@ -7081,29 +7235,29 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="148">
+      <c r="B12" s="143">
         <v>4</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="152" t="s">
+      <c r="E12" s="147" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="26" t="s">
@@ -7111,29 +7265,29 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="148">
+      <c r="B14" s="143">
         <v>5</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="152" t="s">
+      <c r="E14" s="147" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="26" t="s">
@@ -7141,29 +7295,29 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="148">
+      <c r="B16" s="143">
         <v>6</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="154" t="s">
+      <c r="E16" s="149" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="30" t="s">
@@ -7171,10 +7325,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="147"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="153"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="155"/>
       <c r="F17" s="31" t="s">
         <v>58</v>
@@ -7415,31 +7569,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reviewer_Comments_R_1_23-Dec-2024.xlsx
+++ b/Reviewer_Comments_R_1_23-Dec-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Publications\Article_Empirical_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC394D-ED7A-4A18-AD11-0DCD8405A0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6358AB-2351-427F-817B-979C688E4F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="528" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="210">
   <si>
     <t>Reviewer 1</t>
   </si>
@@ -2243,12 +2243,68 @@
   <si>
     <t>Point-by-Point</t>
   </si>
+  <si>
+    <t>R-2-13</t>
+  </si>
+  <si>
+    <t>Ref: Nikolai_Matni_2019_REINFORCE_lecture</t>
+  </si>
+  <si>
+    <t>direct policy search, derivative-free, can solve "unconstrained optimization problems through function evaluations."</t>
+  </si>
+  <si>
+    <t>If you can sample efficiently from p(z; theta), then you can run the algorithm on essentially any problem.</t>
+  </si>
+  <si>
+    <t>using a derivative-free optimization method, and can not achieve the same perfor-
+mance as methods that compute actual gradients. This performance gap is exacerbated when the function
+evaluations are noisy. Another drawback to this approach is that our choice of probability distribution can
+lead to high variance of stochastic gradients. High variance requires more samples to be drawn in order to
+_x000C_nd a minima or maxima. In other words, sample complexity increases.</t>
+  </si>
+  <si>
+    <t>Although the approach has a few drawbacks, the simplicity of implementation is often valuable enough to
+justify its use. There are two primary applications of this sort of stochastic search approach in reinforcement
+learning: policy gradient and pure random search.</t>
+  </si>
+  <si>
+    <t>&gt;&gt; Performance is Domain specific</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nikolai_Matni_2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: It is difficult to say which approach is better without selecting a specific problem to which to apply them</t>
+    </r>
+  </si>
+  <si>
+    <t>mania2018: &gt;&gt; Simple random search provides a competitive approach to reinforcement learning</t>
+  </si>
+  <si>
+    <t>Computationally, our random search algorithm is at least 15 times more e_x000E_cient than the fastest competing model-free methods on these benchmarks.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2606,6 +2662,41 @@
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2664,12 +2755,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB0EED0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2689,6 +2774,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3040,7 +3131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3343,9 +3434,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -3379,7 +3467,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3412,25 +3500,25 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -3447,104 +3535,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4782,9 +4894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816F3457-95CC-4A5E-96D0-1EA42C9E78DF}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4811,32 +4923,32 @@
       <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="119" t="s">
         <v>135</v>
       </c>
       <c r="I1" s="88"/>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="128" t="s">
+      <c r="L1" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="128" t="s">
+      <c r="M1" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="107" t="s">
+      <c r="N1" s="106" t="s">
         <v>139</v>
       </c>
       <c r="O1" s="88"/>
@@ -4861,20 +4973,20 @@
         <v>130</v>
       </c>
       <c r="G2" s="61"/>
-      <c r="H2" s="121"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="89"/>
-      <c r="J2" s="129" t="s">
+      <c r="J2" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="108">
+      <c r="K2" s="107">
         <f>COUNTA(C2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108">
+      <c r="L2" s="107"/>
+      <c r="M2" s="107">
         <v>1</v>
       </c>
-      <c r="N2" s="109">
+      <c r="N2" s="108">
         <f>K2-M2</f>
         <v>0</v>
       </c>
@@ -4898,22 +5010,24 @@
       </c>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
-      <c r="H3" s="122"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="89"/>
-      <c r="J3" s="130" t="s">
+      <c r="J3" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="108">
+      <c r="K3" s="107">
         <f>COUNTA(C3:C11)</f>
         <v>9</v>
       </c>
-      <c r="L3" s="108">
-        <v>1</v>
-      </c>
-      <c r="M3" s="108">
+      <c r="L3" s="107">
+        <f>COUNTIF($E$3:$E$11,"WIP")</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="107">
+        <f>COUNTIF($E$3:$E$11,"Done")</f>
         <v>3</v>
       </c>
-      <c r="N3" s="109">
+      <c r="N3" s="108">
         <f t="shared" ref="N3:N4" si="0">K3-M3</f>
         <v>6</v>
       </c>
@@ -4937,25 +5051,27 @@
       </c>
       <c r="F4" s="86"/>
       <c r="G4" s="86"/>
-      <c r="H4" s="122" t="s">
+      <c r="H4" s="121" t="s">
         <v>160</v>
       </c>
       <c r="I4" s="89"/>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="110">
+      <c r="K4" s="109">
         <f>COUNTA(C12:C23)</f>
         <v>12</v>
       </c>
-      <c r="L4" s="110">
+      <c r="L4" s="109">
+        <f>COUNTIF($E$12:$E$23,"WIP")</f>
         <v>2</v>
       </c>
-      <c r="M4" s="110">
+      <c r="M4" s="109">
+        <f>COUNTIF($E$12:$E$23,"Done")</f>
         <v>3</v>
       </c>
-      <c r="N4" s="111">
-        <f t="shared" si="0"/>
+      <c r="N4" s="110">
+        <f>K4-M4</f>
         <v>9</v>
       </c>
       <c r="O4" s="89"/>
@@ -4976,24 +5092,24 @@
       </c>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
-      <c r="H5" s="122" t="s">
+      <c r="H5" s="121" t="s">
         <v>127</v>
       </c>
       <c r="I5" s="89"/>
       <c r="J5" s="91"/>
-      <c r="K5" s="112">
+      <c r="K5" s="111">
         <f t="shared" ref="K5:L5" si="1">SUM(K2:K4)</f>
         <v>22</v>
       </c>
-      <c r="L5" s="112">
+      <c r="L5" s="111">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="112">
+        <v>4</v>
+      </c>
+      <c r="M5" s="177">
         <f>SUM(M2:M4)</f>
         <v>7</v>
       </c>
-      <c r="N5" s="113">
+      <c r="N5" s="112">
         <f>SUM(N2:N4)</f>
         <v>15</v>
       </c>
@@ -5017,21 +5133,21 @@
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="121" t="s">
         <v>151</v>
       </c>
       <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="114">
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="174">
         <f>L5/$K$5</f>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="M6" s="114">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="M6" s="175">
         <f>M5/$K$5</f>
         <v>0.31818181818181818</v>
       </c>
-      <c r="N6" s="114">
+      <c r="N6" s="176">
         <f>N5/$K$5</f>
         <v>0.68181818181818177</v>
       </c>
@@ -5055,21 +5171,21 @@
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="121" t="s">
         <v>194</v>
       </c>
       <c r="I7" s="89"/>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="140">
+      <c r="K7" s="156">
         <v>45657</v>
       </c>
-      <c r="L7" s="140"/>
+      <c r="L7" s="156"/>
       <c r="M7" s="89"/>
-      <c r="N7" s="114">
+      <c r="N7" s="113">
         <f>(M5+L5)/K5</f>
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="89" t="s">
         <v>169</v>
@@ -5088,21 +5204,21 @@
       <c r="D8" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="81" t="s">
-        <v>104</v>
+      <c r="E8" s="172" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="86"/>
       <c r="G8" s="86"/>
-      <c r="H8" s="122"/>
+      <c r="H8" s="121"/>
       <c r="I8" s="89"/>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="140">
+      <c r="K8" s="156">
         <f ca="1">TODAY()</f>
         <v>45649</v>
       </c>
-      <c r="L8" s="140"/>
+      <c r="L8" s="156"/>
       <c r="M8" s="89"/>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
@@ -5118,23 +5234,23 @@
       <c r="D9" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="172" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="86"/>
       <c r="G9" s="86"/>
-      <c r="H9" s="122" t="s">
+      <c r="H9" s="121" t="s">
         <v>149</v>
       </c>
       <c r="I9" s="89"/>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="104" t="s">
         <v>96</v>
       </c>
       <c r="K9" s="89">
         <f ca="1">K7-K8-1</f>
         <v>7</v>
       </c>
-      <c r="L9" s="106"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="89"/>
       <c r="N9" s="89"/>
       <c r="O9" s="89"/>
@@ -5157,7 +5273,7 @@
       </c>
       <c r="F10" s="92"/>
       <c r="G10" s="92"/>
-      <c r="H10" s="123" t="s">
+      <c r="H10" s="122" t="s">
         <v>150</v>
       </c>
       <c r="I10" s="89"/>
@@ -5179,12 +5295,12 @@
       <c r="D11" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="156" t="s">
+      <c r="E11" s="139" t="s">
         <v>195</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
-      <c r="H11" s="124"/>
+      <c r="H11" s="123"/>
       <c r="I11" s="89"/>
       <c r="J11" s="89"/>
       <c r="K11" s="89"/>
@@ -5211,21 +5327,21 @@
       </c>
       <c r="F12" s="86"/>
       <c r="G12" s="86"/>
-      <c r="H12" s="122"/>
+      <c r="H12" s="121"/>
       <c r="I12" s="89"/>
-      <c r="J12" s="160" t="s">
+      <c r="J12" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="161" t="s">
+      <c r="K12" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="161" t="s">
+      <c r="L12" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="161" t="s">
+      <c r="M12" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="N12" s="162" t="s">
+      <c r="N12" s="145" t="s">
         <v>139</v>
       </c>
       <c r="O12" s="89"/>
@@ -5248,15 +5364,15 @@
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
-      <c r="H13" s="122"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="89"/>
-      <c r="J13" s="163" t="s">
+      <c r="J13" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="164"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="147"/>
       <c r="O13" s="89"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5275,15 +5391,17 @@
       </c>
       <c r="F14" s="86"/>
       <c r="G14" s="86"/>
-      <c r="H14" s="122"/>
+      <c r="H14" s="121" t="s">
+        <v>201</v>
+      </c>
       <c r="I14" s="89"/>
-      <c r="J14" s="165" t="s">
+      <c r="J14" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="164"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="147"/>
       <c r="O14" s="89"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5297,20 +5415,20 @@
       <c r="D15" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="172" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="86"/>
       <c r="G15" s="86"/>
-      <c r="H15" s="122"/>
+      <c r="H15" s="121"/>
       <c r="I15" s="89"/>
-      <c r="J15" s="167" t="s">
+      <c r="J15" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="168"/>
-      <c r="N15" s="169"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="152"/>
       <c r="O15" s="89"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5331,22 +5449,22 @@
       </c>
       <c r="F16" s="86"/>
       <c r="G16" s="86"/>
-      <c r="H16" s="122"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="89"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="171">
+      <c r="J16" s="153"/>
+      <c r="K16" s="154">
         <f t="shared" ref="K16" si="2">SUM(K13:K15)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="171">
+      <c r="L16" s="154">
         <f t="shared" ref="L16" si="3">SUM(L13:L15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="171">
+      <c r="M16" s="154">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="172">
+      <c r="N16" s="155">
         <f>SUM(N13:N15)</f>
         <v>0</v>
       </c>
@@ -5370,15 +5488,15 @@
       </c>
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
-      <c r="H17" s="125" t="s">
+      <c r="H17" s="124" t="s">
         <v>128</v>
       </c>
       <c r="I17" s="89"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
       <c r="O17" s="89"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5394,28 +5512,28 @@
       <c r="D18" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="172" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="86"/>
       <c r="G18" s="86"/>
-      <c r="H18" s="122" t="s">
+      <c r="H18" s="121" t="s">
         <v>196</v>
       </c>
       <c r="I18" s="89"/>
-      <c r="J18" s="166" t="s">
+      <c r="J18" s="149" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="161" t="s">
+      <c r="K18" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="161" t="s">
+      <c r="L18" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="161" t="s">
+      <c r="M18" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="N18" s="162" t="s">
+      <c r="N18" s="145" t="s">
         <v>139</v>
       </c>
       <c r="O18" s="89"/>
@@ -5438,15 +5556,15 @@
       </c>
       <c r="F19" s="86"/>
       <c r="G19" s="86"/>
-      <c r="H19" s="122"/>
+      <c r="H19" s="121"/>
       <c r="I19" s="89"/>
-      <c r="J19" s="163" t="s">
+      <c r="J19" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="164"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="147"/>
       <c r="O19" s="89"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5467,17 +5585,17 @@
       </c>
       <c r="F20" s="86"/>
       <c r="G20" s="86"/>
-      <c r="H20" s="122" t="s">
+      <c r="H20" s="121" t="s">
         <v>197</v>
       </c>
       <c r="I20" s="89"/>
-      <c r="J20" s="165" t="s">
+      <c r="J20" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="164"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="147"/>
       <c r="O20" s="89"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5498,17 +5616,17 @@
         <v>163</v>
       </c>
       <c r="G21" s="86"/>
-      <c r="H21" s="122" t="s">
+      <c r="H21" s="121" t="s">
         <v>137</v>
       </c>
       <c r="I21" s="89"/>
-      <c r="J21" s="167" t="s">
+      <c r="J21" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="168"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="169"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="152"/>
       <c r="O21" s="89"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5529,22 +5647,22 @@
       </c>
       <c r="F22" s="86"/>
       <c r="G22" s="86"/>
-      <c r="H22" s="122"/>
+      <c r="H22" s="121"/>
       <c r="I22" s="89"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="171">
+      <c r="J22" s="153"/>
+      <c r="K22" s="154">
         <f t="shared" ref="K22:L22" si="4">SUM(K19:K21)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="171">
+      <c r="L22" s="154">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="171">
+      <c r="M22" s="154">
         <f>SUM(M19:M21)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="172">
+      <c r="N22" s="155">
         <f>SUM(N19:N21)</f>
         <v>0</v>
       </c>
@@ -5568,7 +5686,7 @@
       </c>
       <c r="F23" s="87"/>
       <c r="G23" s="87"/>
-      <c r="H23" s="124"/>
+      <c r="H23" s="123"/>
       <c r="I23" s="89"/>
       <c r="J23" s="89"/>
       <c r="K23" s="89"/>
@@ -5585,7 +5703,7 @@
       <c r="E24" s="83"/>
       <c r="F24" s="83"/>
       <c r="G24" s="83"/>
-      <c r="H24" s="126"/>
+      <c r="H24" s="125"/>
       <c r="I24" s="89"/>
       <c r="J24" s="89"/>
       <c r="L24" s="89"/>
@@ -5610,10 +5728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24F838E-581A-4053-8853-3FD311356AFD}">
-  <dimension ref="B2:G49"/>
+  <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5625,10 +5743,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="116"/>
+      <c r="C2" s="115"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="93" t="s">
@@ -5720,7 +5838,7 @@
       <c r="B13" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="114" t="s">
         <v>152</v>
       </c>
       <c r="D13">
@@ -5747,17 +5865,17 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="116" t="s">
         <v>155</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="78"/>
     </row>
     <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="115"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="96" t="s">
         <v>193</v>
       </c>
@@ -5805,13 +5923,13 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="133" t="s">
+      <c r="C31" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="134"/>
+      <c r="D31" s="133"/>
     </row>
     <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C32" s="96" t="s">
@@ -5834,19 +5952,19 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="135"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="137"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="136"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="138" t="s">
+      <c r="C38" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C39" s="95" t="s">
@@ -5859,18 +5977,18 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="139"/>
-      <c r="C41" s="136" t="s">
+      <c r="B41" s="138"/>
+      <c r="C41" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
     </row>
     <row r="43" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="132" t="s">
+      <c r="B43" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="138" t="s">
+      <c r="C43" s="137" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5880,10 +5998,10 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="138" t="s">
+      <c r="B46" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="138" t="s">
+      <c r="C46" s="137" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5893,12 +6011,64 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B49" s="135" t="s">
+      <c r="B49" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="136" t="s">
+      <c r="C49" s="135" t="s">
         <v>198</v>
       </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="178" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B52" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="95" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="95" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C55" s="96" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C59" s="96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6409,8 +6579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55CCE9F-712C-4507-AED0-56401ED0B51C}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7165,19 +7335,19 @@
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="143">
+      <c r="B7" s="159">
         <v>1</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D7" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="149" t="s">
+      <c r="E7" s="165" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="26" t="s">
@@ -7185,11 +7355,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="142"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="150"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="171"/>
       <c r="F8" s="27" t="s">
         <v>40</v>
       </c>
@@ -7215,19 +7385,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="143">
+      <c r="B10" s="159">
         <v>3</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="147" t="s">
+      <c r="E10" s="163" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="26" t="s">
@@ -7235,29 +7405,29 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="142"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
       <c r="F11" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="143">
+      <c r="B12" s="159">
         <v>4</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="163" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="26" t="s">
@@ -7265,29 +7435,29 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
+      <c r="A13" s="167"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
       <c r="F13" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="143">
+      <c r="B14" s="159">
         <v>5</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="147" t="s">
+      <c r="D14" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="147" t="s">
+      <c r="E14" s="163" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="26" t="s">
@@ -7295,29 +7465,29 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
       <c r="F15" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="143">
+      <c r="B16" s="159">
         <v>6</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="147" t="s">
+      <c r="D16" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="149" t="s">
+      <c r="E16" s="165" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="30" t="s">
@@ -7325,11 +7495,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="155"/>
+      <c r="A17" s="158"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="166"/>
       <c r="F17" s="31" t="s">
         <v>58</v>
       </c>
@@ -7569,31 +7739,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reviewer_Comments_R_1_23-Dec-2024.xlsx
+++ b/Reviewer_Comments_R_1_23-Dec-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Publications\Article_Empirical_Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Publications\Research_Article_REINFORCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6358AB-2351-427F-817B-979C688E4F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8742AD76-4898-4260-A3D0-BADCC8BB5C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="528" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="414" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="211">
   <si>
     <t>Reviewer 1</t>
   </si>
@@ -2298,6 +2298,9 @@
   </si>
   <si>
     <t>Computationally, our random search algorithm is at least 15 times more e_x000E_cient than the fastest competing model-free methods on these benchmarks.</t>
+  </si>
+  <si>
+    <t>Do on single PHM-C01 or best one - simple case with NBD</t>
   </si>
 </sst>
 </file>
@@ -3369,12 +3372,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3394,9 +3391,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -3535,9 +3529,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -3586,6 +3577,42 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -3633,30 +3660,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3667,9 +3670,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFB3B3"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFB0EED0"/>
-      <color rgb="FFFFB3B3"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4892,11 +4895,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816F3457-95CC-4A5E-96D0-1EA42C9E78DF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4904,10 +4908,10 @@
     <col min="1" max="1" width="4" style="71" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.140625" style="71" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.140625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="84" customWidth="1"/>
-    <col min="6" max="7" width="6.140625" style="84" customWidth="1"/>
-    <col min="8" max="8" width="60.5703125" style="84" customWidth="1"/>
+    <col min="4" max="4" width="89.85546875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="82" customWidth="1"/>
+    <col min="6" max="7" width="6.140625" style="82" customWidth="1"/>
+    <col min="8" max="8" width="60.5703125" style="82" customWidth="1"/>
     <col min="9" max="9" width="2.28515625" style="62" customWidth="1"/>
     <col min="10" max="10" width="9" style="62" customWidth="1"/>
     <col min="11" max="13" width="5.85546875" style="62" customWidth="1"/>
@@ -4923,37 +4927,37 @@
       <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="126" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="127" t="s">
+      <c r="K1" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="106" t="s">
+      <c r="N1" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="88"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="86"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
         <v>105</v>
       </c>
@@ -4966,33 +4970,33 @@
       <c r="D2" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="99" t="s">
         <v>130</v>
       </c>
       <c r="G2" s="61"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="128" t="s">
+      <c r="H2" s="117"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="107">
+      <c r="K2" s="104">
         <f>COUNTA(C2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107">
+      <c r="L2" s="104"/>
+      <c r="M2" s="104">
         <v>1</v>
       </c>
-      <c r="N2" s="108">
+      <c r="N2" s="105">
         <f>K2-M2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="89"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="87"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>23</v>
       </c>
@@ -5005,35 +5009,37 @@
       <c r="D3" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="129" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="87"/>
+      <c r="J3" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="107">
+      <c r="K3" s="104">
         <f>COUNTA(C3:C11)</f>
         <v>9</v>
       </c>
-      <c r="L3" s="107">
+      <c r="L3" s="104">
         <f>COUNTIF($E$3:$E$11,"WIP")</f>
         <v>2</v>
       </c>
-      <c r="M3" s="107">
+      <c r="M3" s="104">
         <f>COUNTIF($E$3:$E$11,"Done")</f>
         <v>3</v>
       </c>
-      <c r="N3" s="108">
-        <f t="shared" ref="N3:N4" si="0">K3-M3</f>
+      <c r="N3" s="105">
+        <f t="shared" ref="N3" si="0">K3-M3</f>
         <v>6</v>
       </c>
-      <c r="O3" s="89"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="87"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>23</v>
       </c>
@@ -5046,35 +5052,35 @@
       <c r="D4" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="121" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="130" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="109">
+      <c r="K4" s="106">
         <f>COUNTA(C12:C23)</f>
         <v>12</v>
       </c>
-      <c r="L4" s="109">
+      <c r="L4" s="106">
         <f>COUNTIF($E$12:$E$23,"WIP")</f>
         <v>2</v>
       </c>
-      <c r="M4" s="109">
+      <c r="M4" s="106">
         <f>COUNTIF($E$12:$E$23,"Done")</f>
-        <v>3</v>
-      </c>
-      <c r="N4" s="110">
+        <v>5</v>
+      </c>
+      <c r="N4" s="107">
         <f>K4-M4</f>
-        <v>9</v>
-      </c>
-      <c r="O4" s="89"/>
+        <v>7</v>
+      </c>
+      <c r="O4" s="87"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="74"/>
@@ -5087,33 +5093,33 @@
       <c r="D5" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="121" t="s">
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="111">
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="108">
         <f t="shared" ref="K5:L5" si="1">SUM(K2:K4)</f>
         <v>22</v>
       </c>
-      <c r="L5" s="111">
+      <c r="L5" s="108">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M5" s="177">
+      <c r="M5" s="157">
         <f>SUM(M2:M4)</f>
-        <v>7</v>
-      </c>
-      <c r="N5" s="112">
+        <v>9</v>
+      </c>
+      <c r="N5" s="109">
         <f>SUM(N2:N4)</f>
-        <v>15</v>
-      </c>
-      <c r="O5" s="89"/>
+        <v>13</v>
+      </c>
+      <c r="O5" s="87"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
@@ -5128,32 +5134,32 @@
       <c r="D6" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="121" t="s">
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="174">
+      <c r="I6" s="87"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="154">
         <f>L5/$K$5</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="M6" s="175">
+      <c r="M6" s="155">
         <f>M5/$K$5</f>
-        <v>0.31818181818181818</v>
-      </c>
-      <c r="N6" s="176">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="N6" s="156">
         <f>N5/$K$5</f>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="O6" s="89"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="O6" s="87"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>23</v>
       </c>
@@ -5166,28 +5172,28 @@
       <c r="D7" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="121" t="s">
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="118" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="104" t="s">
+      <c r="I7" s="87"/>
+      <c r="J7" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="156">
+      <c r="K7" s="164">
         <v>45657</v>
       </c>
-      <c r="L7" s="156"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="113">
+      <c r="L7" s="164"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="110">
         <f>(M5+L5)/K5</f>
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="89" t="s">
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="O7" s="87" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5204,24 +5210,24 @@
       <c r="D8" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="172" t="s">
+      <c r="E8" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="104" t="s">
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="156">
+      <c r="K8" s="164">
         <f ca="1">TODAY()</f>
-        <v>45649</v>
-      </c>
-      <c r="L8" s="156"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
+        <v>45650</v>
+      </c>
+      <c r="L8" s="164"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74"/>
@@ -5234,28 +5240,28 @@
       <c r="D9" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="172" t="s">
+      <c r="E9" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="121" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="104" t="s">
+      <c r="I9" s="87"/>
+      <c r="J9" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="89">
+      <c r="K9" s="87">
         <f ca="1">K7-K8-1</f>
-        <v>7</v>
-      </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L9" s="102"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>23</v>
       </c>
@@ -5268,21 +5274,21 @@
       <c r="D10" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="122" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="75"/>
@@ -5295,19 +5301,19 @@
       <c r="D11" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="E11" s="162" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
@@ -5322,29 +5328,29 @@
       <c r="D12" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="143" t="s">
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="144" t="s">
+      <c r="K12" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="144" t="s">
+      <c r="L12" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="144" t="s">
+      <c r="M12" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="N12" s="145" t="s">
+      <c r="N12" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="O12" s="89"/>
+      <c r="O12" s="87"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
@@ -5359,23 +5365,23 @@
       <c r="D13" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="146" t="s">
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="89"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="87"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
       <c r="B14" s="66">
         <v>2</v>
@@ -5386,23 +5392,23 @@
       <c r="D14" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="121" t="s">
+      <c r="E14" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="148" t="s">
+      <c r="I14" s="87"/>
+      <c r="J14" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="89"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="87"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74"/>
@@ -5415,23 +5421,23 @@
       <c r="D15" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="172" t="s">
+      <c r="E15" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="150" t="s">
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="89"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="87"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
         <v>59</v>
       </c>
@@ -5444,33 +5450,33 @@
       <c r="D16" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="154">
+      <c r="E16" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="150">
         <f t="shared" ref="K16" si="2">SUM(K13:K15)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="154">
+      <c r="L16" s="150">
         <f t="shared" ref="L16" si="3">SUM(L13:L15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="154">
+      <c r="M16" s="150">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="155">
+      <c r="N16" s="151">
         <f>SUM(N13:N15)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="89"/>
-    </row>
-    <row r="17" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="87"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
         <v>59</v>
       </c>
@@ -5483,21 +5489,21 @@
       <c r="D17" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="124" t="s">
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="89"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="87"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
@@ -5512,33 +5518,33 @@
       <c r="D18" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="121" t="s">
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="I18" s="89"/>
-      <c r="J18" s="149" t="s">
+      <c r="I18" s="87"/>
+      <c r="J18" s="145" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="144" t="s">
+      <c r="K18" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="144" t="s">
+      <c r="L18" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="144" t="s">
+      <c r="M18" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="N18" s="145" t="s">
+      <c r="N18" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="O18" s="89"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="87"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="74" t="s">
         <v>59</v>
       </c>
@@ -5551,23 +5557,23 @@
       <c r="D19" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="146" t="s">
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="89"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="87"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="74" t="s">
         <v>59</v>
       </c>
@@ -5580,25 +5586,25 @@
       <c r="D20" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="121" t="s">
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="89"/>
-      <c r="J20" s="148" t="s">
+      <c r="I20" s="87"/>
+      <c r="J20" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="89"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="87"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="74"/>
       <c r="B21" s="66">
         <v>7</v>
@@ -5609,25 +5615,25 @@
       <c r="D21" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="86" t="s">
+      <c r="F21" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="121" t="s">
+      <c r="G21" s="84"/>
+      <c r="H21" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="150" t="s">
+      <c r="I21" s="87"/>
+      <c r="J21" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="89"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="87"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="74" t="s">
@@ -5642,31 +5648,31 @@
       <c r="D22" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="154">
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="150">
         <f t="shared" ref="K22:L22" si="4">SUM(K19:K21)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="154">
+      <c r="L22" s="150">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="154">
+      <c r="M22" s="150">
         <f>SUM(M19:M21)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="155">
+      <c r="N22" s="151">
         <f>SUM(N19:N21)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="89"/>
+      <c r="O22" s="87"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="75" t="s">
@@ -5681,38 +5687,49 @@
       <c r="D23" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
       <c r="B24" s="70"/>
       <c r="C24" s="32"/>
       <c r="D24" s="80"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H23" xr:uid="{816F3457-95CC-4A5E-96D0-1EA42C9E78DF}"/>
+  <autoFilter ref="A1:H23" xr:uid="{816F3457-95CC-4A5E-96D0-1EA42C9E78DF}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="B"/>
+        <filter val="Code"/>
+        <filter val="M"/>
+        <filter val="Major"/>
+        <filter val="S"/>
+        <filter val="WIP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
@@ -5730,54 +5747,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24F838E-581A-4053-8853-3FD311356AFD}">
   <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.7109375" style="95" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.7109375" style="92" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="115"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="91" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="95"/>
+      <c r="D5" s="92"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="100" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="92" t="s">
         <v>141</v>
       </c>
       <c r="D7">
@@ -5788,7 +5805,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="92" t="s">
         <v>143</v>
       </c>
       <c r="D8">
@@ -5799,7 +5816,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="92" t="s">
         <v>146</v>
       </c>
       <c r="D9">
@@ -5810,7 +5827,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="94" t="s">
         <v>145</v>
       </c>
       <c r="D10">
@@ -5821,7 +5838,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="93" t="s">
         <v>144</v>
       </c>
       <c r="D11">
@@ -5832,13 +5849,13 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="96"/>
+      <c r="C12" s="93"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="111" t="s">
         <v>152</v>
       </c>
       <c r="D13">
@@ -5849,47 +5866,47 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="93" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="93" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="113" t="s">
         <v>155</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="78"/>
     </row>
     <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="114"/>
-      <c r="C18" s="96" t="s">
+      <c r="B18" s="111"/>
+      <c r="C18" s="93" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="93" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="93" t="s">
         <v>190</v>
       </c>
       <c r="F21" s="66">
@@ -5900,129 +5917,129 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="92" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="92" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="92" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="92" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="128" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="133"/>
+      <c r="D31" s="130"/>
     </row>
     <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="93" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="93" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="93" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="93" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="134"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="136"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="133"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="137" t="s">
+      <c r="C38" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="92" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="95" t="s">
+      <c r="C40" s="92" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="138"/>
-      <c r="C41" s="135" t="s">
+      <c r="B41" s="135"/>
+      <c r="C41" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
     </row>
     <row r="43" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="137" t="s">
+      <c r="C43" s="134" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="93" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="137" t="s">
+      <c r="B46" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="137" t="s">
+      <c r="C46" s="134" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C47" s="96" t="s">
+      <c r="C47" s="93" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B49" s="134" t="s">
+      <c r="B49" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="135" t="s">
+      <c r="C49" s="132" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="95" t="s">
+      <c r="B51" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="178" t="s">
+      <c r="C51" s="158" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6030,45 +6047,45 @@
       <c r="B52" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="96" t="s">
+      <c r="C52" s="93" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="95" t="s">
+      <c r="C53" s="92" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="95" t="s">
+      <c r="C54" s="92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="C55" s="96" t="s">
+      <c r="C55" s="93" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="95" t="s">
+      <c r="B57" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="179" t="s">
+      <c r="C57" s="159" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="95" t="s">
+      <c r="C58" s="92" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C59" s="96" t="s">
+      <c r="C59" s="93" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="96"/>
+      <c r="C60" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6104,14 +6121,14 @@
       <c r="A1" s="53"/>
       <c r="C1" s="54" t="str">
         <f ca="1">_xlfn.CONCAT("Deadline: 27-Dec | Today: ", TEXT(TODAY(),"dd-mmm"))</f>
-        <v>Deadline: 27-Dec | Today: 23-Dec</v>
+        <v>Deadline: 27-Dec | Today: 24-Dec</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>96</v>
       </c>
       <c r="E1" s="56">
         <f ca="1">DATE(2024,12,27)-TODAY()-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6590,12 +6607,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="96" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="97" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6748,14 +6765,14 @@
       <c r="A1" s="53"/>
       <c r="C1" s="54" t="str">
         <f ca="1">_xlfn.CONCAT("Deadline: 27-Dec | Today: ", TEXT(TODAY(),"dd-mmm"))</f>
-        <v>Deadline: 27-Dec | Today: 23-Dec</v>
+        <v>Deadline: 27-Dec | Today: 24-Dec</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>96</v>
       </c>
       <c r="E1" s="56">
         <f ca="1">DATE(2024,12,27)-TODAY()-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6804,7 +6821,7 @@
       <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="98" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="44" t="s">
@@ -7335,19 +7352,19 @@
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="159">
+      <c r="B7" s="167">
         <v>1</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="173" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="26" t="s">
@@ -7355,11 +7372,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="171"/>
+      <c r="A8" s="175"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="179"/>
       <c r="F8" s="27" t="s">
         <v>40</v>
       </c>
@@ -7385,19 +7402,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="159">
+      <c r="B10" s="167">
         <v>3</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="163" t="s">
+      <c r="D10" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="163" t="s">
+      <c r="E10" s="171" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="26" t="s">
@@ -7405,29 +7422,29 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
       <c r="F11" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="159">
+      <c r="B12" s="167">
         <v>4</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="163" t="s">
+      <c r="D12" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="171" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="26" t="s">
@@ -7435,29 +7452,29 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="167"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
       <c r="F13" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="159">
+      <c r="B14" s="167">
         <v>5</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="163" t="s">
+      <c r="D14" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="163" t="s">
+      <c r="E14" s="171" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="26" t="s">
@@ -7465,29 +7482,29 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="167"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
+      <c r="A15" s="175"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
       <c r="F15" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="159">
+      <c r="B16" s="167">
         <v>6</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="163" t="s">
+      <c r="D16" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="165" t="s">
+      <c r="E16" s="173" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="30" t="s">
@@ -7495,11 +7512,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="158"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="166"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="174"/>
       <c r="F17" s="31" t="s">
         <v>58</v>
       </c>
